--- a/biology/Histoire de la zoologie et de la botanique/Alexis_Félix_Jeanjean/Alexis_Félix_Jeanjean.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Alexis_Félix_Jeanjean/Alexis_Félix_Jeanjean.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alexis_F%C3%A9lix_Jeanjean</t>
+          <t>Alexis_Félix_Jeanjean</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alexis Félix Jeanjean, né le 6 janvier 1867 et mort le 4 février 1941, est un enseignant, botaniste, entomologiste et mycologue français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Alexis_F%C3%A9lix_Jeanjean</t>
+          <t>Alexis_Félix_Jeanjean</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Directeur d'école à Villeneuve-sur-Lot, passionné de sciences naturelles, il prend sa retraite en 1923, s’installe à Bordeaux et se consacre à la botanique.
-Il est à l’origine d’un projet de travail floristique d’ensemble, qu'il réalise avec la Société linnéenne de Bordeaux, en assurant la synthèse des données collectées. Ce travail, achevé à la veille de la Seconde Guerre mondiale, n'est publié  par  Jean  Eymé (1920-2018)[1] qu’en 1961, notamment sous forme de catalogue[2]. Ce travail monumental de synthèse recensant plus de 1 640 taxons fait toujours référence. 
+Il est à l’origine d’un projet de travail floristique d’ensemble, qu'il réalise avec la Société linnéenne de Bordeaux, en assurant la synthèse des données collectées. Ce travail, achevé à la veille de la Seconde Guerre mondiale, n'est publié  par  Jean  Eymé (1920-2018) qu’en 1961, notamment sous forme de catalogue. Ce travail monumental de synthèse recensant plus de 1 640 taxons fait toujours référence. 
 </t>
         </is>
       </c>
